--- a/biology/Zoologie/Apostolepis_flavotorquata/Apostolepis_flavotorquata.xlsx
+++ b/biology/Zoologie/Apostolepis_flavotorquata/Apostolepis_flavotorquata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apostolepis flavotorquata est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apostolepis flavotorquata est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre au Goiás, au Tocantins, au Pará, au Mato Grosso, au Mato Grosso do Sul, dans l'État de São Paulo et de Bahia.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre au Goiás, au Tocantins, au Pará, au Mato Grosso, au Mato Grosso do Sul, dans l'État de São Paulo et de Bahia.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Deuxième partie, p. 781-1536 (texte intégral).</t>
         </is>
